--- a/webpack/webpack.xlsx
+++ b/webpack/webpack.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frontEnd\workspace\study\study\webpack\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB5AA45-7BE7-4972-8B72-879E5E5CE814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Webpack说明" sheetId="1" r:id="rId1"/>
     <sheet name="Webpack4升级成5" sheetId="2" r:id="rId2"/>
     <sheet name="webpack基本配置" sheetId="3" r:id="rId3"/>
     <sheet name="webpack高级配置" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>1.基本配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,12 +103,24 @@
     <t>多入口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>抽离css文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽离公共代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步加载JS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,7 +200,7 @@
         <xdr:cNvPr id="2" name="图片 1" descr="q6.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -223,7 +230,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -265,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,27 +304,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -349,24 +338,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -542,84 +513,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -631,14 +602,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -647,44 +618,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -696,22 +667,53 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416ADAE3-310F-4968-83E7-00946DD1CD7A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/webpack/webpack.xlsx
+++ b/webpack/webpack.xlsx
@@ -4,21 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Webpack说明" sheetId="1" r:id="rId1"/>
     <sheet name="Webpack4升级成5" sheetId="2" r:id="rId2"/>
     <sheet name="webpack基本配置" sheetId="3" r:id="rId3"/>
     <sheet name="webpack高级配置" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="webpack优化构建速度（可用于生产）" sheetId="5" r:id="rId5"/>
+    <sheet name="webapack优化构建速度（不可用于生产环境！！！）" sheetId="6" r:id="rId6"/>
+    <sheet name="webpack性能优化（产出代码）" sheetId="7" r:id="rId7"/>
+    <sheet name="使用production" sheetId="8" r:id="rId8"/>
+    <sheet name="Scope Hosting" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>1.基本配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +117,142 @@
   </si>
   <si>
     <t>异步加载JS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.babel-loader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用cache,正常开发环境即可。通常再配合include或者exclude配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.IgnorePlugin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webpack内置，主要是避免打包后体积太大，比如moment包提供了200多重语言，但是项目只需要中英文，这个时候就可以通过Ignorde来进行优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. noParse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如react.min.js已经打包好了，不需要再次打包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.HappyPack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.ParallelUglifyPlugin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境开启多进程打包，会提高速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须用在生产环境，压缩代码，本地环境无需压缩代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自动刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.热更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.DllPlugin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发体验的优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.体积更小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.合理分包，不重复加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.速度更快，内存使用更少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体优化项目：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.懒加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.小图片base64编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.bundle 加hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.提取公共代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.IgnorePlugin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.使用CDN加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.使用prodution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自动开启代码压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.代码体积更小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.创建函数作用域更少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个函数对应一个函数作用域，函数多的时候，作用域就更多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.代码可读性更好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.使用Scope Hosting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把多个函数合并成一个函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +340,7 @@
         <xdr:cNvPr id="2" name="图片 1" descr="q6.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -670,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -707,12 +847,251 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="125.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
